--- a/data/income_statement/3digits/total/701_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/701_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>701-Activities of head offices</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>701-Activities of head offices</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>5078530.09273</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4358985.719629999</v>
+        <v>4364855.270190001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4990192.451150001</v>
+        <v>4993388.68367</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4219721.43252</v>
+        <v>4486439.73021</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4436950.24581</v>
+        <v>4548860.583559999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4546183.29446</v>
+        <v>4598455.67161</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8298457.073720001</v>
+        <v>8906210.526450001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6042297.57626</v>
+        <v>6071815.87751</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>7108431.2405</v>
+        <v>7108431.240499999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10767907.27301</v>
+        <v>10767938.27301</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10013178.67483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10030396.12006</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15504903.733</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3682184.0753</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2702646.42719</v>
+        <v>2708445.76573</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>3963893.4105</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3231839.11225</v>
+        <v>3494180.92014</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3397933.92244</v>
+        <v>3504012.66081</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3465811.03753</v>
+        <v>3508837.23072</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7001905.89095</v>
+        <v>7576921.92966</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4685412.551139999</v>
+        <v>4685448.55114</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5432250.283499999</v>
+        <v>5432250.2835</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8242815.271639999</v>
+        <v>8242815.27164</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7750964.337429999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7767906.615379999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>11397661.392</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>128865.29617</v>
@@ -1034,16 +950,16 @@
         <v>137681.64604</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>65883.84865</v>
+        <v>65883.84864999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>131399.47477</v>
+        <v>131797.13749</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>117925.01951</v>
+        <v>119620.58757</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>151465.75059</v>
+        <v>154635.49009</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>156064.21683</v>
@@ -1060,77 +976,87 @@
       <c r="M7" s="48" t="n">
         <v>549515.2241399999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>2386013.497</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1267480.72126</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1518657.6464</v>
+        <v>1518727.85842</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>960415.192</v>
+        <v>963611.4245200001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>856482.8455000001</v>
+        <v>860461.6725799999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>921091.3038600001</v>
+        <v>925227.3351800001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>928906.5063400001</v>
+        <v>934982.9508</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1140486.96594</v>
+        <v>1173224.37996</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1140306.58938</v>
+        <v>1169788.89063</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1337808.81717</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2016574.15624</v>
+        <v>2016605.15624</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1712699.11326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1712974.28054</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1721228.844</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>53673.55397000001</v>
+        <v>53673.55397</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>53428.72964</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>65856.35146999999</v>
+        <v>65856.35147000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>82714.13131999999</v>
+        <v>82761.91041</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>23425.02204</v>
+        <v>23920.78754</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>22517.90937999999</v>
+        <v>22536.04132</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>18780.09219</v>
+        <v>28129.15235</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>42252.80151</v>
+        <v>42335.32016</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>56738.63376999999</v>
+        <v>56738.63377</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>307552.34253</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>86386.98764000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>71173.00900000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>30328.17579</v>
@@ -1154,16 +1085,16 @@
         <v>35526.61870000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>51239.35301</v>
+        <v>51287.1321</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>16142.94076</v>
+        <v>16565.39212</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>19015.93879</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>16478.77333</v>
+        <v>25827.73533</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>32053.42086</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>51548.83058</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>58284.204</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>22949.58064</v>
@@ -1196,16 +1132,16 @@
         <v>30703.14886</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7254.04028</v>
+        <v>7254.735070000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3128.126150000001</v>
+        <v>3128.12615</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>1998.10905</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>9856.112080000001</v>
+        <v>9938.630729999999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>2106.32083</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1943.77069</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>7406.563</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>395.79754</v>
@@ -1235,19 +1176,19 @@
         <v>771.6294499999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>28.041</v>
+        <v>100.66035</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>373.84444</v>
+        <v>391.97638</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>303.20981</v>
+        <v>303.30797</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>343.26857</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>864.98983</v>
+        <v>864.9898300000001</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>1940.99061</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>32894.38637</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>5482.242</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5024856.53876</v>
+        <v>5024856.538759999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4305556.98999</v>
+        <v>4311426.54055</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4924336.099679999</v>
+        <v>4927532.3322</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4137007.3012</v>
+        <v>4403677.819799999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4413525.223769999</v>
+        <v>4524939.796019999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4523665.38508</v>
+        <v>4575919.630289999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8279676.98153</v>
+        <v>8878081.3741</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6000044.77475</v>
+        <v>6029480.55735</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>7051692.60673</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10460354.93048</v>
+        <v>10460385.93048</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9926791.68719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9944009.13242</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15433730.724</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2750013.40731</v>
@@ -1310,19 +1261,19 @@
         <v>2074484.72964</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1428670.6428</v>
+        <v>1433245.09783</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1553949.83678</v>
+        <v>1588548.59734</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1631866.4694</v>
+        <v>1671198.71791</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1695721.11894</v>
+        <v>1703109.69777</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2127156.93603</v>
+        <v>2127163.40633</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2512105.3073</v>
@@ -1331,13 +1282,18 @@
         <v>3211283.82715</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3289102.03478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3314333.46135</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7786880.581</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>107803.33036</v>
@@ -1361,7 +1317,7 @@
         <v>37835.62011</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>89903.41244</v>
+        <v>89909.88274</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>158200.33944</v>
@@ -1372,32 +1328,37 @@
       <c r="M15" s="48" t="n">
         <v>78126.98044</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>2087272.903</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>804564.3677599999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>470269.0011000001</v>
+        <v>470269.0010999999</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>265064.0016</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>280967.22162</v>
+        <v>280990.94005</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>152684.35498</v>
+        <v>154062.88444</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>173144.40855</v>
+        <v>173164.38588</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>110942.93545</v>
+        <v>111365.33545</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>147878.8017</v>
@@ -1409,13 +1370,18 @@
         <v>634597.20123</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>348325.1204499999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>371226.82052</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2418170.845</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1218870.58516</v>
@@ -1427,16 +1393,16 @@
         <v>1755234.20655</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1076642.87104</v>
+        <v>1081193.60764</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1296799.80464</v>
+        <v>1330020.03574</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1405547.3724</v>
+        <v>1444859.64358</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1510655.02184</v>
+        <v>1516770.05619</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>1866106.00478</v>
@@ -1448,13 +1414,18 @@
         <v>2325778.98528</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2782816.61463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2785146.34113</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3150053.281</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>618775.1240299999</v>
@@ -1469,13 +1440,13 @@
         <v>51210.55803</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>82981.40879999999</v>
+        <v>82981.4088</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>25466.83593</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>36287.54154000001</v>
+        <v>37138.68601999999</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>23268.71711</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>79833.31925999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>131383.552</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2274843.13145</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2930307.39718</v>
+        <v>2936176.94774</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2849851.37004</v>
+        <v>2853047.60256</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2708336.6584</v>
+        <v>2970432.72197</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2859575.38699</v>
+        <v>2936391.19868</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2891798.91568</v>
+        <v>2904720.91238</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6583955.862589999</v>
+        <v>7174971.67633</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3872887.83872</v>
+        <v>3902317.151019999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4539587.29943</v>
+        <v>4539587.299430001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7249071.10333</v>
+        <v>7249102.10333</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6637689.65241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6629675.671070001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7646850.143</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1407934.23985</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1504055.37878</v>
+        <v>1509151.0143</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1737646.09086</v>
+        <v>1740088.39687</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2008156.46622</v>
+        <v>2094202.48694</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2168244.20043</v>
+        <v>2247480.58174</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2631428.41642</v>
+        <v>2664095.59491</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2758837.746890001</v>
+        <v>3180172.09903</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3481397.18443</v>
+        <v>3518969.71191</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3972968.3448</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5235942.897910001</v>
+        <v>5236049.36241</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5961257.559970001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5995706.06163</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6711021.27</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>18334.33223</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>62548.36424</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>55576.366</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>146199.99969</v>
@@ -1619,139 +1610,154 @@
         <v>87952.94308000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>96569.22341000001</v>
+        <v>96569.22340999999</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>101629.63864</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>47016.32231</v>
+        <v>47348.8161</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>33667.752</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>38169.89015</v>
+        <v>38221.05697999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>54150.86999</v>
+        <v>54155.91423</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>62196.40573</v>
+        <v>62196.40573000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>126709.45621</v>
+        <v>126710.02991</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>151189.96725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>151209.72169</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>411285.286</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1243399.90793</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1400812.89406</v>
+        <v>1405908.52958</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1624984.91695</v>
+        <v>1627427.22296</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1889947.83321</v>
+        <v>1975993.85393</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2099685.48281</v>
+        <v>2178589.37033</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2565177.67978</v>
+        <v>2597844.85827</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2687088.6187</v>
+        <v>3108371.80401</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3389833.67892</v>
+        <v>3427401.16216</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>3876836.22253</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5060542.058900001</v>
+        <v>5060647.949700001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5747519.228479999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5781947.975699999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6244159.618</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>866908.8916</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1426252.0184</v>
+        <v>1427025.93344</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1112205.27918</v>
+        <v>1112959.20569</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>700180.1921799999</v>
+        <v>876230.2350299997</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>691331.1865600001</v>
+        <v>688910.6169400001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>260370.49926</v>
+        <v>240625.3174700001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3825118.1157</v>
+        <v>3994799.5773</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>391490.65429</v>
+        <v>383347.4391100001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>566618.9546300001</v>
+        <v>566618.9546299998</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2013128.20542</v>
+        <v>2013052.74092</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>676432.09244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>633969.6094399998</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>935828.873</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>8924247.422010001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>10028832.83124</v>
+        <v>10035182.63299</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>13878701.32994</v>
+        <v>13883943.57192</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>12229835.30452</v>
+        <v>12398987.04244</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>17500902.28819</v>
+        <v>18161464.165</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>20053744.84624</v>
+        <v>21529278.65316</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>35520520.34175001</v>
+        <v>40011962.91671</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>33839579.79693</v>
+        <v>34102619.04493</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>40069881.98001</v>
@@ -1760,40 +1766,45 @@
         <v>80322717.55678</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>70579193.06598999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>69523177.21415001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>84919749.23800001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1132298.51984</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1353468.97361</v>
+        <v>1353470.20215</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>1831647.04176</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2407713.02019</v>
+        <v>2422250.83369</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2860609.04191</v>
+        <v>2864001.50701</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3420737.74803</v>
+        <v>3420749.16161</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4182529.8285</v>
+        <v>5080366.970989999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4164290.88877</v>
+        <v>4194444.356050001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5849057.500620001</v>
+        <v>5849057.500619999</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>7731654.99346</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>8288459.55785</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>6362028.212</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1458844.6041</v>
@@ -1820,16 +1836,16 @@
         <v>3011651.8707</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>3057552.11993</v>
+        <v>3327637.89628</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3699815.09414</v>
+        <v>4291969.62305</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>5115141.088179999</v>
+        <v>7260410.04807</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>5792347.971720001</v>
+        <v>5829558.59369</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>6850695.301100001</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>20863505.30103</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>15370364.256</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1068409.47258</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>878286.23482</v>
+        <v>879119.1323699999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1484186.73167</v>
+        <v>1484715.14743</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1695821.58768</v>
+        <v>1746280.68227</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1978403.23547</v>
+        <v>2005038.23813</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2601350.86066</v>
+        <v>2631300.71871</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3009414.91508</v>
+        <v>3381015.60481</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3756878.76568</v>
+        <v>3762290.18956</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>5027055.28775</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>8130301.550619999</v>
+        <v>8130301.550620001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>10236815.14816</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>10237105.5807</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6804407.555</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>14988.065</v>
@@ -1895,16 +1921,16 @@
         <v>21537.06073</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>23275.25577</v>
+        <v>23346.72477</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>38272.9091</v>
+        <v>39830.14574</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>53103.54693</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>72052.93218999999</v>
+        <v>72319.18531</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>76712.40282999999</v>
@@ -1918,38 +1944,43 @@
       <c r="M29" s="48" t="n">
         <v>231055.21007</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>369160.735</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>429180.31372</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>416861.3520700001</v>
+        <v>416861.35207</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>246668.25619</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>304879.6425900001</v>
+        <v>304970.64459</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>1190581.25076</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>387264.44028</v>
+        <v>387759.05995</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1246416.55544</v>
+        <v>1246480.08328</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1090981.38254</v>
+        <v>1091015.29964</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>528574.4809699999</v>
+        <v>528574.48097</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>301946.13916</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>276791.0742</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>298181.839</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>166118.70625</v>
@@ -1973,19 +2009,19 @@
         <v>1054585.10435</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>392587.49254</v>
+        <v>394671.37712</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>620079.7000000001</v>
+        <v>620923.6577000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>616378.76653</v>
+        <v>617778.9979699999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5340507.01255</v>
+        <v>5342330.07342</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>292744.6982399999</v>
+        <v>292744.8245</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>2135690.8588</v>
@@ -1996,56 +2032,66 @@
       <c r="M31" s="48" t="n">
         <v>1767401.19642</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>6374628.918</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>3967636.77539</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4123767.49672</v>
+        <v>4129283.17238</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5884863.353920001</v>
+        <v>5889556.30407</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3652742.20627</v>
+        <v>3748375.81899</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7017968.321370001</v>
+        <v>7306967.11086</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8381384.66387</v>
+        <v>9158079.189869998</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>15481990.81347</v>
+        <v>16478963.11161</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>17558126.646</v>
+        <v>17710404.53646</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>17812428.66034</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>44940950.76021999</v>
+        <v>44940950.76022</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>25536840.29464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>25537184.51307</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>46304390.013</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1213.03153</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>669.2093400000001</v>
+        <v>669.20934</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>549.6620600000001</v>
@@ -2057,7 +2103,7 @@
         <v>6340.58611</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>8152.74221</v>
+        <v>8153.01833</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>1324.96342</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>162782.7456</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>715569.38</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>365.48914</v>
@@ -2111,37 +2162,42 @@
         <v>4.23346</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1006.70844</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>955.57113</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>685192.44446</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>587638.2533700002</v>
+        <v>587638.25337</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>919426.47404</v>
+        <v>919447.35011</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>740276.6278499999</v>
+        <v>746551.4893800002</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>730544.3640600001</v>
+        <v>799593.01293</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>885091.84479</v>
+        <v>959920.19794</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1071120.52052</v>
+        <v>1148731.1634</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1106510.11107</v>
+        <v>1144461.91212</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1751177.78808</v>
@@ -2150,55 +2206,65 @@
         <v>2439711.76392</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3214535.82958</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2157936.46408</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2321016.15</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>3740029.32086</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4108221.4421</v>
+        <v>4113169.67997</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4456982.31519</v>
+        <v>4461993.08967</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3502805.530300001</v>
+        <v>3616390.6617</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5909221.55876</v>
+        <v>6201233.528220001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>7323342.5824</v>
+        <v>8022591.22718</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>12984225.3547</v>
+        <v>13577949.22938</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>13635506.46066</v>
+        <v>13796918.06785</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>14520422.05926</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>36549372.20573</v>
+        <v>36549372.20573001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>21772226.96747</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>21775007.18348</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>40788013.616</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6906.87638</v>
+        <v>6906.876380000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>4533.8832</v>
@@ -2210,10 +2276,10 @@
         <v>6459.75738</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>23731.6574</v>
+        <v>24785.04697</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3633.60296</v>
+        <v>3657.21575</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>3770.74729</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>25481.19177</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>115709.569</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>98053.00384</v>
@@ -2249,16 +2320,16 @@
         <v>30694.69979</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>53137.61760000001</v>
+        <v>53137.61759999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>71065.91588</v>
+        <v>71246.07122</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>44331.91833</v>
+        <v>45224.68657</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>81445.65948</v>
+        <v>83845.50448</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>37340.16845</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>63079.36325</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>78019.467</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>56884.40487</v>
+        <v>56884.40487000001</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>265321.6028</v>
@@ -2285,16 +2361,16 @@
         <v>192605.09668</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>96714.84320999999</v>
+        <v>107262.84321</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>146995.40937</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>273663.91547</v>
+        <v>273918.68412</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>111772.39847</v>
+        <v>111862.15544</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>122091.24003</v>
@@ -2303,40 +2379,45 @@
         <v>339441.0104199999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>582905.1376600001</v>
+        <v>582905.13766</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>258811.9257</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>771595.002</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3418599.15918</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3561110.24465</v>
+        <v>3566058.48252</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3790898.93157</v>
+        <v>3794265.72605</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3105898.16668</v>
+        <v>3203687.15418</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5465496.36224</v>
+        <v>5701101.93028</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6800281.53688</v>
+        <v>7448550.14389</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12060589.0932</v>
+        <v>12642051.06387</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>12962253.53413</v>
+        <v>13116940.65874</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>13335474.6768</v>
@@ -2345,16 +2426,21 @@
         <v>33332899.12896</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>20673151.12025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>20673675.40736</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>37946461.82</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>4358.12506</v>
+        <v>4358.125059999999</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>529.5484</v>
@@ -2369,13 +2455,13 @@
         <v>2741.78212</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>7420.739860000001</v>
+        <v>7420.73986</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>8884.523210000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>983.6179200000001</v>
+        <v>983.6179199999999</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>598.91778</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>28467.70189</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>745687.5550000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2423,13 +2514,18 @@
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>6735.6122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>713.00533</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>393.254</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>155227.75153</v>
@@ -2438,61 +2534,66 @@
         <v>254834.88147</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>431588.28023</v>
+        <v>433232.26023</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>262392.18872</v>
+        <v>267640.33262</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>217118.73003</v>
+        <v>272471.74188</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>167107.18017</v>
+        <v>217628.68116</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>472222.8489</v>
+        <v>483502.2277</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>460399.8734399999</v>
+        <v>464724.51102</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>798400.89653</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2346755.618969999</v>
+        <v>2346755.61897</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>716500.05241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>724778.5881800001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1130146.949</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1973658.38364</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2030893.27258</v>
+        <v>2030894.71401</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4168636.25809</v>
+        <v>4168644.17092</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2511904.238229999</v>
+        <v>2578035.06956</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5879977.62789</v>
+        <v>6359065.05648</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6229723.788939998</v>
+        <v>6757150.68793</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>13369595.62585</v>
+        <v>13999697.16115</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>15804460.8987</v>
+        <v>15819285.30318</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>16023567.55425</v>
@@ -2501,37 +2602,42 @@
         <v>37825304.23112001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>27407785.42393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>27418926.61917</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>38651274.275</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1058619.12729</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1350149.17564</v>
+        <v>1350150.61707</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2696802.99116</v>
+        <v>2696810.90399</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1678658.96261</v>
+        <v>1724229.28052</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3456211.78079</v>
+        <v>3783428.905770001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4130760.85451</v>
+        <v>4459543.02356</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9287369.546739997</v>
+        <v>9400608.85348</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>10195907.12754</v>
+        <v>10210731.53202</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>11690217.54822</v>
@@ -2540,13 +2646,18 @@
         <v>23347807.77541</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>18962947.89494</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>18964258.4256</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>27082980.772</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>915039.25635</v>
@@ -2558,16 +2669,16 @@
         <v>1471833.26693</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>833245.2756199999</v>
+        <v>853805.7890399999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2423765.8471</v>
+        <v>2575636.15071</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2098962.93443</v>
+        <v>2297607.66437</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4082226.07911</v>
+        <v>4599088.30767</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>5608553.77116</v>
@@ -2579,94 +2690,109 @@
         <v>14477496.45571</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>8444837.52899</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>8454668.193569999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>11568293.503</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>4077468.60911</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5315970.13496</v>
+        <v>5318144.172449999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>6365288.03584</v>
+        <v>6366265.51702</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6915305.728169999</v>
+        <v>7080791.546209999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6403034.2881</v>
+        <v>6290076.19724</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>6761048.97416</v>
+        <v>6990162.055520001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>12991817.4769</v>
+        <v>16429116.10348</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4791103.09186</v>
+        <v>4869763.11301</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>10092511.32113</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>7961169.325350001</v>
+        <v>7961093.860850001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>22075612.76703</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>20963213.02094</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>6416290.22</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1098137.01615</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1632054.42021</v>
+        <v>1632055.28049</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1396324.10143</v>
+        <v>1396404.6591</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1795721.98309</v>
+        <v>1799141.29515</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4554697.259050001</v>
+        <v>4558421.59771</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1367357.45076</v>
+        <v>1554141.93013</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3808532.54291</v>
+        <v>4186609.30713</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4785296.69606</v>
+        <v>4785345.20972</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>7413987.896980001</v>
+        <v>7413987.89698</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>9170101.01066</v>
+        <v>9170102.263180001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6390562.566260001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>7461507.21641</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4620238.017</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>7384.486100000001</v>
+        <v>7384.486100000002</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>10137.72602</v>
@@ -2675,16 +2801,16 @@
         <v>2240.42271</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>39724.64475</v>
+        <v>39724.64474999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>8141.470590000001</v>
+        <v>8141.47059</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2715.52408</v>
+        <v>2933.13829</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>7396.87942</v>
+        <v>7398.351570000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>7641.28836</v>
@@ -2698,74 +2824,84 @@
       <c r="M49" s="48" t="n">
         <v>13951.46883</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>61092.849</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1090752.53005</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1621916.69419</v>
+        <v>1621917.55447</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1394083.67872</v>
+        <v>1394164.23639</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1755997.33834</v>
+        <v>1759416.6504</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4546555.78846</v>
+        <v>4550280.12712</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1364641.92668</v>
+        <v>1551208.79184</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3801135.66349</v>
+        <v>4179210.955560001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4777655.407699999</v>
+        <v>4777703.921360001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>7407642.22893</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9152380.610999998</v>
+        <v>9152381.86352</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6376611.09743</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7447555.74758</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4559145.168</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>313241.6530699999</v>
+        <v>313241.65307</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1012277.42531</v>
+        <v>1012287.21844</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2180116.98917</v>
+        <v>2184637.66793</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>492173.54518</v>
+        <v>493320.71481</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1551456.25361</v>
+        <v>1819193.22984</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1095610.90567</v>
+        <v>1595404.21093</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>832066.44866</v>
+        <v>836346.38292</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2010194.27274</v>
+        <v>2011032.39267</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>924208.8510799999</v>
@@ -2774,19 +2910,24 @@
         <v>2005450.18752</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3113673.31234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3113750.36375</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3162787.913</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1710.58571</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>378.0703699999999</v>
+        <v>378.07037</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>482.6298</v>
@@ -2798,13 +2939,13 @@
         <v>432.76253</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>771.6142000000001</v>
+        <v>772.1646999999999</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>2501.96615</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>721.0870099999999</v>
+        <v>721.08701</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1228.77182</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1970.15733</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>107229.866</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>21737.79924</v>
@@ -2834,16 +2980,16 @@
         <v>13840.47945</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>9218.892179999999</v>
+        <v>9220.333040000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>110307.73096</v>
+        <v>110444.53629</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>42795.32460999999</v>
+        <v>44214.77013</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>32731.0973</v>
+        <v>32731.9064</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>36929.83266</v>
@@ -2852,166 +2998,189 @@
         <v>42080.09133</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>17302.59957</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>17344.5033</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>100868.444</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>289793.26812</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>985539.3347100001</v>
+        <v>985549.1278400001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2160035.042</v>
+        <v>2164555.72076</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>477867.99813</v>
+        <v>479015.16776</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1541804.5989</v>
+        <v>1809540.13427</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>984531.5605099999</v>
+        <v>1484187.50994</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>786769.1579</v>
+        <v>789629.6466399999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1976742.08843</v>
+        <v>1977579.39926</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>886050.2466000001</v>
+        <v>886050.2466</v>
       </c>
       <c r="L54" s="48" t="n">
         <v>1961856.46216</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3094400.55544</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3094435.70312</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2954689.603</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>4862363.97219</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5935747.12986</v>
+        <v>5937912.2345</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5581495.148100001</v>
+        <v>5578032.508189999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>8218854.16608</v>
+        <v>8386612.126549999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>9406275.293540001</v>
+        <v>9029304.56511</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>7032795.51925</v>
+        <v>6948899.774719999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>15968283.57115</v>
+        <v>19779379.02769</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>7566205.515179999</v>
+        <v>7644075.930059999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>16582290.36703</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>15125820.14849</v>
+        <v>15125745.93651</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>25352502.02095</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>25310969.8736</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>7873740.324</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>174502.54448</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>186418.2959199999</v>
+        <v>186418.29592</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>506171.0994899999</v>
+        <v>506205.32885</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>209415.53321</v>
+        <v>209573.37234</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>411014.66773</v>
+        <v>411313.6445</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>276525.50357</v>
+        <v>277104.18625</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>457993.30129</v>
+        <v>592708.4646299999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>456683.04736</v>
+        <v>462528.83005</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>447916.11606</v>
+        <v>447916.1160600001</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>1156931.0858</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>683239.59539</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>679182.9651799999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>966730.534</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>4687861.42771</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5749328.833939999</v>
+        <v>5751493.938579999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>5075324.048610001</v>
+        <v>5071827.179339999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>8009438.63287</v>
+        <v>8177038.75421</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>8995260.625809999</v>
+        <v>8617990.920609999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>6756270.01568</v>
+        <v>6671795.588469999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>15510290.26986</v>
+        <v>19186670.56306</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>7109522.467820001</v>
+        <v>7181547.10001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>16134374.25097</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>13968889.06269</v>
+        <v>13968814.85071</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>24669262.42556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>24631786.90842</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6907009.79</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>615</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1042</v>
+        <v>1060</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1080</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1168</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>